--- a/Lab 4/ DE.xlsx
+++ b/Lab 4/ DE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E050DEE5-5C5C-124F-A4B3-849754D60D73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F571D-A6AB-4C4B-9FE3-188762D63A67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -759,31 +759,31 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>1.227063</v>
+        <v>2.0575779999999999E-4</v>
       </c>
       <c r="E4" s="2">
-        <v>888040.4</v>
+        <v>3216845</v>
       </c>
       <c r="F4" s="2">
-        <v>5.5071009999999997E-2</v>
+        <v>7.6040839999999998E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>713.83090000000004</v>
+        <v>73.559420000000003</v>
       </c>
       <c r="H4" s="2">
-        <v>23.141480000000001</v>
+        <v>12.8239</v>
       </c>
       <c r="I4" s="2">
-        <v>7.8761409999999997E-3</v>
+        <v>4.428909E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>21.030100000000001</v>
+        <v>20.938929999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>18.091139999999999</v>
       </c>
       <c r="L4" s="2">
-        <v>57.567160000000001</v>
+        <v>161.33250000000001</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>713.83090000000004</v>
+        <v>136</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
@@ -833,15 +833,15 @@
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>21.030100000000001</v>
+        <v>21</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>12.2</v>
+        <v>18.091139999999999</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>161.33250000000001</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>0.19052131254054705</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
@@ -929,19 +929,19 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" si="1"/>
-        <v>0.99856871817062209</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.67436325184593116</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.91116173120728927</v>
       </c>
       <c r="M9" s="5">
         <f>SUM(C9:L9)</f>
-        <v>8.1890900307111689</v>
+        <v>8.5855249830532205</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -954,43 +954,43 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>3.6196548672566373E-2</v>
+        <v>6.0695516224188793E-6</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>0.13853984399375976</v>
+        <v>0.50184789391575668</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>2.0246694852941175E-4</v>
+        <v>2.7956191176470589E-4</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.54087808823529415</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="1"/>
-        <v>0.72771949685534598</v>
+        <v>0.40326729559748425</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="1"/>
-        <v>0.14804776315789475</v>
+        <v>8.3250169172932334E-2</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99709190476190468</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="1"/>
-        <v>0.39161333333333337</v>
+        <v>1</v>
       </c>
       <c r="M10" s="5">
         <f>SUM(C10:L10)</f>
-        <v>3.4423194529614296</v>
+        <v>4.526620983146759</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
